--- a/Doc/参数表格.xlsx
+++ b/Doc/参数表格.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="61">
   <si>
     <t>bw-host</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -154,6 +154,113 @@
   </si>
   <si>
     <t>主机数目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行试验持续的时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max buffer size of netwaork interface in packets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标记阈值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RED limit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RED队列长度最小阈值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RED队列长度最大标记阈值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RED平均包大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REDburst大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>red_probe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RED标记概率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启ECN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启RED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户的iperf路径,py调用使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用的拥塞控制算法</t>
+  </si>
+  <si>
+    <t>使用的拥塞控制算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reno</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reno</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>congrest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecnrest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cutoff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vtcp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vtcprest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">使用ECN的主机数目 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -489,24 +596,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="45" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -519,8 +626,11 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -534,7 +644,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -548,7 +658,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -562,7 +672,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -570,7 +680,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -580,75 +690,190 @@
       <c r="C7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="C17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/参数表格.xlsx
+++ b/Doc/参数表格.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="tcp_fair.py" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="70">
   <si>
     <t>bw-host</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -260,7 +260,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">使用ECN的主机数目 </t>
+    <t>CALIBRATION_SKIP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CALIBRATION_SAMPLES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NASAMPLES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用ECN的主机数目 (剩下的使用ECNREST)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIG4调用传值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reno</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reno</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reno</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>which iperf'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从1到9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -268,7 +304,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -292,13 +328,37 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -313,9 +373,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -596,41 +661,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="45" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -643,8 +712,11 @@
       <c r="D3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -657,8 +729,11 @@
       <c r="D4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -671,8 +746,11 @@
       <c r="D5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -680,7 +758,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -693,8 +771,11 @@
       <c r="E7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -707,8 +788,11 @@
       <c r="D8" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -718,8 +802,11 @@
       <c r="C9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -729,56 +816,77 @@
       <c r="C10" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="C11" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="5">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="C12" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="C13" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>90001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="C14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="C15" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>43</v>
       </c>
       <c r="C16" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -791,8 +899,11 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -805,16 +916,22 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="C19" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>49</v>
       </c>
@@ -824,8 +941,11 @@
       <c r="E20" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -835,8 +955,11 @@
       <c r="E21" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>55</v>
       </c>
@@ -846,8 +969,11 @@
       <c r="E22" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>56</v>
       </c>
@@ -857,23 +983,56 @@
       <c r="E23">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>59</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/参数表格.xlsx
+++ b/Doc/参数表格.xlsx
@@ -663,7 +663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
